--- a/src/main/webapp/statistics/artem_omissions_dates_on_angular.xlsx
+++ b/src/main/webapp/statistics/artem_omissions_dates_on_angular.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>artem omissions dates on angular by period: 10.02.15 - 06.08.15</t>
+    <t>artem omissions dates on angular by period: 31.07.15 - 21.08.15</t>
   </si>
   <si>
     <t>Training</t>
